--- a/robotics_testing.xlsx
+++ b/robotics_testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philblecher/Desktop/Github/Robotics-A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA4024-E3F5-7246-9143-31789FAC9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3EBB3F-2523-AB49-B4B2-4F2187380403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="40" windowWidth="25440" windowHeight="14900" xr2:uid="{6BFEAF90-9294-224A-82A4-F93E728509A0}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>line test - 1000mm</t>
   </si>
   <si>
-    <t>5x500m squares</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 calibrated  </t>
+  </si>
+  <si>
+    <t>2x500m squares</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,19 +543,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>13</v>
